--- a/ctrf/results.xlsx
+++ b/ctrf/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,91 +419,121 @@
         <v>filePath</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>Test chức năng đổi mật khẩu sau quên mật khẩu Đổi mật khẩu thành công với tempToken hợp lệ</v>
+        <v>Test API tạo phòng chat Tạo phòng chat thành công giữa hai người dùng</v>
       </c>
       <c r="B2" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="C2">
-        <v>198</v>
-      </c>
-      <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Error: expect(received).toEqual(expected) // deep equality
-Expected: 200
-Received: 500
-</v>
+        <v>256</v>
       </c>
       <c r="E2" t="str">
-        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\resetPassword.test.js</v>
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Test chức năng đổi mật khẩu sau quên mật khẩu Đổi mật khẩu thất bại với tempToken không hợp lệ</v>
+        <v>Test API tạo phòng chat Tạo phòng chat thất bại vì targetUserId không tồn tại</v>
       </c>
       <c r="B3" t="str">
         <v>passed</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E3" t="str">
-        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\resetPassword.test.js</v>
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Test chức năng đổi mật khẩu sau quên mật khẩu Đổi mật khẩu thất bại khi không gửi tempToken</v>
+        <v>Test API tạo phòng chat Tạo phòng chat thất bại khi tạo với chính bản thân</v>
       </c>
       <c r="B4" t="str">
         <v>passed</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E4" t="str">
-        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\resetPassword.test.js</v>
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Test chức năng đổi mật khẩu sau quên mật khẩu Đổi mật khẩu thất bại khi không gửi newPassword</v>
+        <v>Test API tạo phòng chat Tạo phòng chat thất bại khi phòng đã tồn tại</v>
       </c>
       <c r="B5" t="str">
         <v>passed</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E5" t="str">
-        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\resetPassword.test.js</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="str">
-        <v>Test chức năng đổi mật khẩu sau quên mật khẩu Lỗi khi server không thể đổi mật khẩu</v>
+        <v>Test API tạo phòng chat Tạo phòng chat thất bại khi thiếu targetUserId</v>
       </c>
       <c r="B6" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Error: expect(received).toEqual(expected) // deep equality
-Expected: 500
-Received: 400
-</v>
+        <v>34</v>
       </c>
       <c r="E6" t="str">
-        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\resetPassword.test.js</v>
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Test API tạo phòng chat Không có token gửi lên (Unauthorized)</v>
+      </c>
+      <c r="B7" t="str">
+        <v>passed</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="E7" t="str">
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Test API tạo phòng chat Token không hợp lệ</v>
+      </c>
+      <c r="B8" t="str">
+        <v>passed</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="E8" t="str">
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Test API tạo phòng chat Lỗi hệ thống trong quá trình tạo phòng chat</v>
+      </c>
+      <c r="B9" t="str">
+        <v>passed</v>
+      </c>
+      <c r="C9">
+        <v>168</v>
+      </c>
+      <c r="E9" t="str">
+        <v>C:\Users\Admin\Desktop\VMess\2-Back-End\tests\rooms\createRoom.test.js</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>